--- a/amazon-problems.xlsx
+++ b/amazon-problems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/g_vargash_alumnos_upm_es/Documents/Documentos/Github/Amazon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/g_vargash_alumnos_upm_es/Documents/Documentos/Github/Amazon Coding Interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4077A94-0846-4D35-A4AD-EFB8327E00A0}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3CBCDF9-03F7-43FE-A1C7-A89B8FF2A7C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
+    <workbookView minimized="1" xWindow="30165" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,6 +662,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -675,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -973,11 +980,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45CC4A8-B22F-4F1C-A6CC-AD15CCB51EEE}">
   <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="5.7109375" style="2" customWidth="1"/>
@@ -988,7 +995,7 @@
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75">
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -1018,9 +1025,9 @@
       <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -1035,7 +1042,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" ht="15.75">
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -1048,9 +1055,9 @@
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -1065,7 +1072,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -1080,7 +1087,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -1095,7 +1102,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -1110,7 +1117,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -1125,7 +1132,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -1140,7 +1147,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -1155,7 +1162,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -1170,7 +1177,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -1185,7 +1192,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -1200,7 +1207,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -1215,7 +1222,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -1230,7 +1237,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -1245,7 +1252,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -1260,7 +1267,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -1275,7 +1282,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -1290,7 +1297,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -1305,7 +1312,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -1320,7 +1327,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -1335,7 +1342,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -1350,7 +1357,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -1365,7 +1372,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -1380,7 +1387,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -1395,7 +1402,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -1410,7 +1417,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -1425,7 +1432,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -1440,7 +1447,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -1455,7 +1462,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -1470,7 +1477,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -1485,7 +1492,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -1500,7 +1507,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -1515,7 +1522,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>35</v>
       </c>
@@ -1530,7 +1537,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>36</v>
       </c>
@@ -1545,7 +1552,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>37</v>
       </c>
@@ -1560,7 +1567,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>38</v>
       </c>
@@ -1575,7 +1582,7 @@
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -1590,7 +1597,7 @@
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>40</v>
       </c>
@@ -1605,7 +1612,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>41</v>
       </c>
@@ -1620,7 +1627,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>42</v>
       </c>
@@ -1635,7 +1642,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>43</v>
       </c>
@@ -1650,7 +1657,7 @@
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <v>44</v>
       </c>
@@ -1665,7 +1672,7 @@
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>45</v>
       </c>
@@ -1680,7 +1687,7 @@
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <v>46</v>
       </c>
@@ -1695,7 +1702,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>47</v>
       </c>
@@ -1710,7 +1717,7 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>48</v>
       </c>
@@ -1725,7 +1732,7 @@
       </c>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>49</v>
       </c>
@@ -1740,7 +1747,7 @@
       </c>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>50</v>
       </c>
@@ -1755,7 +1762,7 @@
       </c>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <v>51</v>
       </c>
@@ -1770,7 +1777,7 @@
       </c>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <v>52</v>
       </c>
@@ -1785,7 +1792,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>53</v>
       </c>
@@ -1800,7 +1807,7 @@
       </c>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>54</v>
       </c>
@@ -1815,7 +1822,7 @@
       </c>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>55</v>
       </c>
@@ -1830,7 +1837,7 @@
       </c>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <v>56</v>
       </c>
@@ -1845,7 +1852,7 @@
       </c>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <v>57</v>
       </c>
@@ -1860,7 +1867,7 @@
       </c>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -1875,7 +1882,7 @@
       </c>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
         <v>59</v>
       </c>
@@ -1890,7 +1897,7 @@
       </c>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>60</v>
       </c>
@@ -1905,7 +1912,7 @@
       </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>61</v>
       </c>
@@ -1920,7 +1927,7 @@
       </c>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>62</v>
       </c>
@@ -1935,7 +1942,7 @@
       </c>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>63</v>
       </c>
@@ -1950,7 +1957,7 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <v>64</v>
       </c>
@@ -1965,7 +1972,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="8">
         <v>65</v>
       </c>
@@ -1980,7 +1987,7 @@
       </c>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="8">
         <v>66</v>
       </c>
@@ -1995,7 +2002,7 @@
       </c>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="8">
         <v>67</v>
       </c>
@@ -2010,7 +2017,7 @@
       </c>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="8">
         <v>68</v>
       </c>
@@ -2025,7 +2032,7 @@
       </c>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
         <v>69</v>
       </c>
@@ -2040,7 +2047,7 @@
       </c>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
         <v>70</v>
       </c>
@@ -2055,7 +2062,7 @@
       </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <v>71</v>
       </c>
@@ -2070,7 +2077,7 @@
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="8">
         <v>72</v>
       </c>
@@ -2085,7 +2092,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="8">
         <v>73</v>
       </c>
@@ -2100,7 +2107,7 @@
       </c>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="8">
         <v>74</v>
       </c>
@@ -2115,7 +2122,7 @@
       </c>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <v>75</v>
       </c>
@@ -2130,7 +2137,7 @@
       </c>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>76</v>
       </c>
@@ -2145,7 +2152,7 @@
       </c>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <v>77</v>
       </c>
@@ -2160,7 +2167,7 @@
       </c>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>78</v>
       </c>
@@ -2175,7 +2182,7 @@
       </c>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="8">
         <v>79</v>
       </c>
@@ -2190,7 +2197,7 @@
       </c>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="8">
         <v>80</v>
       </c>
@@ -2205,7 +2212,7 @@
       </c>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="8">
         <v>81</v>
       </c>
@@ -2220,11 +2227,11 @@
       </c>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
         <v>167</v>
       </c>

--- a/amazon-problems.xlsx
+++ b/amazon-problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/g_vargash_alumnos_upm_es/Documents/Documentos/Github/Amazon Coding Interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3CBCDF9-03F7-43FE-A1C7-A89B8FF2A7C5}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59E5A2F-03A7-4908-B0FF-53B099B0B2FC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30165" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
   <si>
     <t>N</t>
   </si>
@@ -537,14 +537,41 @@
     <t>https://leetcode.com/problems/find-peak-element/</t>
   </si>
   <si>
-    <t>Teamo, te cogen 100% &lt;3</t>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Languajes</t>
+  </si>
+  <si>
+    <t>C / Java / Python</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Hechos</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,8 +602,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,7 +637,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,6 +715,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -978,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45CC4A8-B22F-4F1C-A6CC-AD15CCB51EEE}">
-  <dimension ref="B2:F88"/>
+  <dimension ref="B2:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,11 +1065,11 @@
     <col min="3" max="3" width="60" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="94.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,25 +1083,43 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="20">
         <v>190</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="24">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -1040,24 +1132,46 @@
       <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="25"/>
+      <c r="J4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="3">
+        <f>SUM(H8,H15,H32,H44:H46,H51:H52,H80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="20">
         <v>58</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="3">
+        <f>SUM(H3,H5,H4,H6:H7,H10,H14,H16,H18,H17,H21,H23:H25,H27:H29,H31,H33:H37,H41:H43,H48:H49,H53,H55:H56,H59:H64,H68,H69,H66,H70,H72:H74,H78:H79,H81:H83)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -1070,9 +1184,15 @@
       <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="25"/>
+      <c r="J6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -1085,9 +1205,18 @@
       <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="25"/>
+      <c r="J7" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="27">
+        <f>SUM(K4:K6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -1100,9 +1229,11 @@
       <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="16"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -1115,9 +1246,11 @@
       <c r="E9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -1130,9 +1263,11 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -1145,9 +1280,11 @@
       <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -1160,9 +1297,11 @@
       <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -1175,9 +1314,11 @@
       <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -1190,24 +1331,32 @@
       <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="20">
         <v>29</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -1220,24 +1369,32 @@
       <c r="E16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="20">
         <v>28</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -1250,9 +1407,11 @@
       <c r="E18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="16"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -1265,9 +1424,11 @@
       <c r="E19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -1280,9 +1441,11 @@
       <c r="E20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -1295,9 +1458,11 @@
       <c r="E21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -1310,9 +1475,11 @@
       <c r="E22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -1325,9 +1492,11 @@
       <c r="E23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="16"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -1340,9 +1509,11 @@
       <c r="E24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="16"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -1355,9 +1526,11 @@
       <c r="E25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -1370,9 +1543,11 @@
       <c r="E26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -1385,9 +1560,11 @@
       <c r="E27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -1400,9 +1577,11 @@
       <c r="E28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="16"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -1415,9 +1594,11 @@
       <c r="E29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="16"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -1430,9 +1611,11 @@
       <c r="E30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -1445,9 +1628,11 @@
       <c r="E31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="16"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -1460,9 +1645,11 @@
       <c r="E32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="16"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -1475,9 +1662,11 @@
       <c r="E33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="16"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -1490,9 +1679,11 @@
       <c r="E34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="16"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -1505,9 +1696,11 @@
       <c r="E35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="16"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -1520,9 +1713,11 @@
       <c r="E36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="16"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>35</v>
       </c>
@@ -1535,9 +1730,11 @@
       <c r="E37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="16"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>36</v>
       </c>
@@ -1550,9 +1747,11 @@
       <c r="E38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="16"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>37</v>
       </c>
@@ -1565,9 +1764,11 @@
       <c r="E39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>38</v>
       </c>
@@ -1580,9 +1781,11 @@
       <c r="E40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -1595,9 +1798,11 @@
       <c r="E41" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="16"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>40</v>
       </c>
@@ -1610,24 +1815,32 @@
       <c r="E42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="16"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>41</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="20">
         <v>13</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>42</v>
       </c>
@@ -1640,9 +1853,11 @@
       <c r="E44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="16"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>43</v>
       </c>
@@ -1655,9 +1870,11 @@
       <c r="E45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="16"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <v>44</v>
       </c>
@@ -1670,9 +1887,11 @@
       <c r="E46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="16"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>45</v>
       </c>
@@ -1685,9 +1904,11 @@
       <c r="E47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <v>46</v>
       </c>
@@ -1700,9 +1921,11 @@
       <c r="E48" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="16"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>47</v>
       </c>
@@ -1715,9 +1938,11 @@
       <c r="E49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="16"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>48</v>
       </c>
@@ -1730,9 +1955,11 @@
       <c r="E50" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="16"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>49</v>
       </c>
@@ -1745,9 +1972,11 @@
       <c r="E51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="16"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>50</v>
       </c>
@@ -1760,9 +1989,11 @@
       <c r="E52" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="16"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <v>51</v>
       </c>
@@ -1775,9 +2006,11 @@
       <c r="E53" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="16"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <v>52</v>
       </c>
@@ -1790,9 +2023,11 @@
       <c r="E54" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="16"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>53</v>
       </c>
@@ -1805,9 +2040,11 @@
       <c r="E55" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="16"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>54</v>
       </c>
@@ -1820,9 +2057,11 @@
       <c r="E56" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="16"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>55</v>
       </c>
@@ -1835,9 +2074,11 @@
       <c r="E57" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="16"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <v>56</v>
       </c>
@@ -1850,9 +2091,11 @@
       <c r="E58" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <v>57</v>
       </c>
@@ -1865,9 +2108,11 @@
       <c r="E59" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="16"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -1880,9 +2125,11 @@
       <c r="E60" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="16"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
         <v>59</v>
       </c>
@@ -1895,9 +2142,11 @@
       <c r="E61" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="16"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>60</v>
       </c>
@@ -1910,9 +2159,11 @@
       <c r="E62" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="16"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>61</v>
       </c>
@@ -1925,9 +2176,11 @@
       <c r="E63" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="16"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>62</v>
       </c>
@@ -1940,9 +2193,11 @@
       <c r="E64" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="16"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>63</v>
       </c>
@@ -1955,9 +2210,11 @@
       <c r="E65" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="16"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <v>64</v>
       </c>
@@ -1970,9 +2227,11 @@
       <c r="E66" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="16"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="8">
         <v>65</v>
       </c>
@@ -1985,9 +2244,11 @@
       <c r="E67" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="8">
         <v>66</v>
       </c>
@@ -2000,9 +2261,11 @@
       <c r="E68" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="16"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="8">
         <v>67</v>
       </c>
@@ -2015,9 +2278,11 @@
       <c r="E69" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="16"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="8">
         <v>68</v>
       </c>
@@ -2030,9 +2295,11 @@
       <c r="E70" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="16"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
         <v>69</v>
       </c>
@@ -2045,9 +2312,11 @@
       <c r="E71" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="16"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
         <v>70</v>
       </c>
@@ -2060,9 +2329,11 @@
       <c r="E72" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="16"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <v>71</v>
       </c>
@@ -2075,9 +2346,11 @@
       <c r="E73" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="16"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="8">
         <v>72</v>
       </c>
@@ -2090,9 +2363,11 @@
       <c r="E74" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="16"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="8">
         <v>73</v>
       </c>
@@ -2105,9 +2380,11 @@
       <c r="E75" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="16"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="8">
         <v>74</v>
       </c>
@@ -2120,9 +2397,11 @@
       <c r="E76" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="16"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <v>75</v>
       </c>
@@ -2135,9 +2414,11 @@
       <c r="E77" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="16"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>76</v>
       </c>
@@ -2150,9 +2431,11 @@
       <c r="E78" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="16"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <v>77</v>
       </c>
@@ -2165,9 +2448,11 @@
       <c r="E79" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="16"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>78</v>
       </c>
@@ -2180,9 +2465,11 @@
       <c r="E80" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="16"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="8">
         <v>79</v>
       </c>
@@ -2195,9 +2482,11 @@
       <c r="E81" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="16"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="8">
         <v>80</v>
       </c>
@@ -2210,9 +2499,11 @@
       <c r="E82" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="16"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="8">
         <v>81</v>
       </c>
@@ -2225,16 +2516,13 @@
       <c r="E83" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="16"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="25"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="E84" s="12"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
-        <v>167</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2256,7 +2544,7 @@
     <hyperlink ref="E18" r:id="rId16" tooltip="https://leetcode.com/problems/course-schedule/" xr:uid="{F1304FF5-CA8A-44CD-8717-9CA0E8AF6CB9}"/>
     <hyperlink ref="E19" r:id="rId17" tooltip="https://leetcode.com/problems/concatenated-words/" xr:uid="{E3593C2C-CE18-4FEA-BBEF-BD88BAAE7DAD}"/>
     <hyperlink ref="E20" r:id="rId18" tooltip="https://leetcode.com/problems/median-of-two-sorted-arrays/" xr:uid="{DC8C037E-D148-49E7-BB25-C016E2F321AD}"/>
-    <hyperlink ref="E21" r:id="rId19" tooltip="https://leetcode.com/problems/rotting-oranges/" xr:uid="{CFC8F502-679C-4AD2-BB5F-0FDCEA40DDE3}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{CFC8F502-679C-4AD2-BB5F-0FDCEA40DDE3}"/>
     <hyperlink ref="E22" r:id="rId20" tooltip="https://leetcode.com/problems/count-of-smaller-numbers-after-self/" xr:uid="{E2CB19D1-B9A7-4D98-97B1-E7E1DEA27EA1}"/>
     <hyperlink ref="E23" r:id="rId21" tooltip="https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals/" xr:uid="{EAF3361A-438A-4E8D-8B0A-68E7A85C921C}"/>
     <hyperlink ref="E24" r:id="rId22" tooltip="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{3B256133-D95A-45C3-A447-378731159BF7}"/>
@@ -2322,5 +2610,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
+  <ignoredErrors>
+    <ignoredError sqref="K4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/amazon-problems.xlsx
+++ b/amazon-problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/g_vargash_alumnos_upm_es/Documents/Documentos/Github/Amazon Coding Interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="472" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59E5A2F-03A7-4908-B0FF-53B099B0B2FC}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39215E7-61AC-4F8B-AF0E-71031BF4A98A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
   <si>
     <t>N</t>
   </si>
@@ -588,13 +588,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -605,6 +598,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -686,9 +687,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,7 +698,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,12 +708,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -722,21 +722,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1054,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45CC4A8-B22F-4F1C-A6CC-AD15CCB51EEE}">
   <dimension ref="B2:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1065,7 @@
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="5.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="94.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="2"/>
@@ -1076,7 +1078,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1093,77 +1095,77 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>190</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="24">
+      <c r="G3" s="13"/>
+      <c r="H3" s="22">
         <v>1</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>97</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="25"/>
-      <c r="J4" s="5" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="23"/>
+      <c r="J4" s="4" t="s">
         <v>173</v>
       </c>
       <c r="K4" s="3">
         <f>SUM(H8,H15,H32,H44:H46,H51:H52,H80)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18">
+        <v>58</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20">
-        <v>58</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="24">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>174</v>
       </c>
       <c r="K5" s="3">
@@ -1172,1357 +1174,1361 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>58</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="25"/>
-      <c r="J6" s="5" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="23"/>
+      <c r="J6" s="4" t="s">
         <v>175</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3">
         <v>55</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="25"/>
-      <c r="J7" s="26" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="23"/>
+      <c r="J7" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="25">
         <f>SUM(K4:K6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3">
         <v>53</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="25"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3">
         <v>42</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3">
         <v>39</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="25"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3">
         <v>39</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="25"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="3">
         <v>38</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="25"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3">
         <v>34</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="25"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="3">
         <v>30</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="25"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>29</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="24">
+      <c r="G15" s="12"/>
+      <c r="H15" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="3">
         <v>29</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="25"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>28</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="24">
+      <c r="G17" s="13"/>
+      <c r="H17" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3">
         <v>28</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="25"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="3">
         <v>26</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="25"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="3">
         <v>24</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="25"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="3">
         <v>24</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="25"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="3">
         <v>23</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="25"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="3">
         <v>22</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="25"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="3">
         <v>22</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="25"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="3">
         <v>21</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="25"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="3">
         <v>21</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="25"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="3">
         <v>20</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="25"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="3">
         <v>19</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="25"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>27</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="3">
         <v>18</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="25"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="24" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="3">
         <v>17</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="25"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="3">
         <v>17</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="25"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>30</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="3">
         <v>16</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="25"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>31</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="3">
         <v>16</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="25"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="3">
         <v>16</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="25"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="3">
         <v>16</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="25"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="24" t="s">
         <v>71</v>
       </c>
       <c r="D36" s="3">
         <v>15</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="25"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="24" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="3">
         <v>15</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="25"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>36</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="24" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="3">
         <v>15</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="25"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>37</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="24" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="3">
         <v>14</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="25"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>38</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="3">
         <v>14</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="25"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>39</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="3">
         <v>14</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="25"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>40</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="24" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="3">
         <v>13</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="25"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>41</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <v>13</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="24">
+      <c r="G43" s="13"/>
+      <c r="H43" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>42</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="3">
         <v>13</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="25"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>43</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="18">
         <v>13</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="25"/>
+      <c r="F45" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>44</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="3">
         <v>13</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="25"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>45</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="24" t="s">
         <v>93</v>
       </c>
       <c r="D47" s="3">
         <v>12</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="25"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>46</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D48" s="3">
         <v>12</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="25"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>47</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="24" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="3">
         <v>12</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="25"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="23"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>48</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D50" s="3">
         <v>12</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="25"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="23"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>49</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="24" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="3">
         <v>11</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="25"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>50</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D52" s="3">
         <v>11</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="25"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="23"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>51</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D53" s="3">
         <v>11</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="25"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>52</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="24" t="s">
         <v>107</v>
       </c>
       <c r="D54" s="3">
         <v>11</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="25"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="23"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>53</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="24" t="s">
         <v>109</v>
       </c>
       <c r="D55" s="3">
         <v>10</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="25"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="23"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>54</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="24" t="s">
         <v>111</v>
       </c>
       <c r="D56" s="3">
         <v>10</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="25"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="23"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>55</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="24" t="s">
         <v>113</v>
       </c>
       <c r="D57" s="3">
         <v>10</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="25"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>56</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="24" t="s">
         <v>115</v>
       </c>
       <c r="D58" s="3">
         <v>10</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="25"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>57</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D59" s="3">
         <v>9</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="25"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="23"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>58</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D60" s="3">
         <v>9</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="25"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="23"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>59</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="24" t="s">
         <v>121</v>
       </c>
       <c r="D61" s="3">
         <v>9</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="25"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>60</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="24" t="s">
         <v>123</v>
       </c>
       <c r="D62" s="3">
         <v>8</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="25"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="23"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>61</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="24" t="s">
         <v>125</v>
       </c>
       <c r="D63" s="3">
         <v>8</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="25"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="23"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>62</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="24" t="s">
         <v>127</v>
       </c>
       <c r="D64" s="3">
         <v>8</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="25"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="23"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>63</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D65" s="3">
         <v>8</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="25"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="23"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>64</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="24" t="s">
         <v>131</v>
       </c>
       <c r="D66" s="3">
         <v>8</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="25"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>65</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D67" s="3">
         <v>8</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="25"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>66</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="3">
         <v>8</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="25"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="23"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>67</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D69" s="3">
         <v>8</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="25"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>68</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="24" t="s">
         <v>139</v>
       </c>
       <c r="D70" s="3">
         <v>8</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="25"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>69</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="24" t="s">
         <v>141</v>
       </c>
       <c r="D71" s="3">
         <v>8</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="25"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="23"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>70</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="24" t="s">
         <v>143</v>
       </c>
       <c r="D72" s="3">
         <v>8</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="25"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="23"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>71</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="24" t="s">
         <v>145</v>
       </c>
       <c r="D73" s="3">
         <v>8</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="25"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>72</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="24" t="s">
         <v>147</v>
       </c>
       <c r="D74" s="3">
         <v>7</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="25"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="23"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>73</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="24" t="s">
         <v>149</v>
       </c>
       <c r="D75" s="3">
         <v>7</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="25"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="23"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>74</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="24" t="s">
         <v>151</v>
       </c>
       <c r="D76" s="3">
         <v>7</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="25"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="23"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>75</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="24" t="s">
         <v>153</v>
       </c>
       <c r="D77" s="3">
         <v>7</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="25"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="23"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>76</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="24" t="s">
         <v>155</v>
       </c>
       <c r="D78" s="3">
         <v>7</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="25"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>77</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="3">
         <v>7</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="25"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="23"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>78</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="24" t="s">
         <v>159</v>
       </c>
       <c r="D80" s="3">
         <v>7</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="25"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="23"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>79</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="24" t="s">
         <v>161</v>
       </c>
       <c r="D81" s="3">
         <v>7</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="25"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="23"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>80</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="24" t="s">
         <v>163</v>
       </c>
       <c r="D82" s="3">
         <v>7</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="25"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="23"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>81</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="24" t="s">
         <v>165</v>
       </c>
       <c r="D83" s="3">
         <v>7</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="25"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
-      <c r="E84" s="12"/>
+      <c r="B84" s="10"/>
+      <c r="E84" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/amazon-problems.xlsx
+++ b/amazon-problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/g_vargash_alumnos_upm_es/Documents/Documentos/Github/Amazon Coding Interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39215E7-61AC-4F8B-AF0E-71031BF4A98A}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AEED28E-18C0-44EC-B533-192C4116B8BF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="178">
   <si>
     <t>N</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>C / Python</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45CC4A8-B22F-4F1C-A6CC-AD15CCB51EEE}">
   <dimension ref="B2:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1145,7 @@
       </c>
       <c r="K4" s="3">
         <f>SUM(H8,H15,H32,H44:H46,H51:H52,H80)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1215,7 +1218,7 @@
       </c>
       <c r="K7" s="25">
         <f>SUM(K4:K6)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1884,18 +1887,22 @@
       <c r="B46" s="7">
         <v>44</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="18">
         <v>13</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="20" t="s">
+        <v>170</v>
+      </c>
       <c r="G46" s="12"/>
-      <c r="H46" s="23"/>
+      <c r="H46" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
@@ -1969,18 +1976,22 @@
       <c r="B51" s="7">
         <v>49</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="18">
         <v>11</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="15"/>
+      <c r="F51" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="G51" s="12"/>
-      <c r="H51" s="23"/>
+      <c r="H51" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
@@ -2616,8 +2627,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
-  <ignoredErrors>
-    <ignoredError sqref="K4" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/amazon-problems.xlsx
+++ b/amazon-problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/g_vargash_alumnos_upm_es/Documents/Documentos/Github/Amazon Coding Interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AEED28E-18C0-44EC-B533-192C4116B8BF}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD8B105-2604-47E4-B563-9EBC0521EB31}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="179">
   <si>
     <t>N</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>C / Python</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,7 +743,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1059,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45CC4A8-B22F-4F1C-A6CC-AD15CCB51EEE}">
   <dimension ref="B2:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,24 +1130,28 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="18">
         <v>97</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>173</v>
       </c>
       <c r="K4" s="3">
         <f>SUM(H8,H15,H32,H44:H46,H51:H52,H80)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1173,7 +1179,7 @@
       </c>
       <c r="K5" s="3">
         <f>SUM(H3,H5,H4,H6:H7,H10,H14,H16,H18,H17,H21,H23:H25,H27:H29,H31,H33:H37,H41:H43,H48:H49,H53,H55:H56,H59:H64,H68,H69,H66,H70,H72:H74,H78:H79,H81:H83)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1218,7 +1224,7 @@
       </c>
       <c r="K7" s="25">
         <f>SUM(K4:K6)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1344,7 +1350,7 @@
       <c r="B15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="18">
@@ -1382,7 +1388,7 @@
       <c r="B17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="18">
@@ -1828,7 +1834,7 @@
       <c r="B43" s="7">
         <v>41</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D43" s="18">
@@ -1866,7 +1872,7 @@
       <c r="B45" s="7">
         <v>43</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D45" s="18">
@@ -1887,7 +1893,7 @@
       <c r="B46" s="7">
         <v>44</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="18">
@@ -1976,7 +1982,7 @@
       <c r="B51" s="7">
         <v>49</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="27" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="18">
@@ -1997,18 +2003,22 @@
       <c r="B52" s="7">
         <v>50</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="18">
         <v>11</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="15"/>
+      <c r="F52" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="G52" s="12"/>
-      <c r="H52" s="23"/>
+      <c r="H52" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
@@ -2627,5 +2637,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
+  <ignoredErrors>
+    <ignoredError sqref="K4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/amazon-problems.xlsx
+++ b/amazon-problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/g_vargash_alumnos_upm_es/Documents/Documentos/Github/Amazon Coding Interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="491" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD8B105-2604-47E4-B563-9EBC0521EB31}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="8_{62C2EA49-8340-49A3-B68E-FC74A596A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF8AC85-D115-4539-9704-1574287C73A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20102F37-584B-44CD-9965-569F7B7A1F21}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="179">
   <si>
     <t>N</t>
   </si>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45CC4A8-B22F-4F1C-A6CC-AD15CCB51EEE}">
   <dimension ref="B2:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="K4" s="3">
         <f>SUM(H8,H15,H32,H44:H46,H51:H52,H80)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1224,25 +1224,29 @@
       </c>
       <c r="K7" s="25">
         <f>SUM(K4:K6)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="18">
         <v>53</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="20" t="s">
+        <v>170</v>
+      </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="23"/>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
